--- a/data/client_gamedata/ios/iosExp.xlsx
+++ b/data/client_gamedata/ios/iosExp.xlsx
@@ -6,7 +6,7 @@
     <sheet name="Assets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Assets'!A1:F254</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F252"/>
+  <dimension ref="A1:F254"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2885,13 +2885,13 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="B126" t="str">
-        <v>audioclip_sfx_h0198_jp.ab</v>
+        <v>audioclip_sfx_h0193_jp.ab</v>
       </c>
       <c r="C126">
-        <v>1080989</v>
+        <v>1562400</v>
       </c>
       <c r="D126" t="str">
         <v>Stage_1</v>
@@ -2900,18 +2900,18 @@
         <v>0</v>
       </c>
       <c r="F126" t="str">
-        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
+        <v>45ff95324ae72e8fe9c4dcda33be8b3cf21290c2c0a743081aa82feccff9b975</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="B127" t="str">
-        <v>audioclip_sfx_h0199_jp.ab</v>
+        <v>audioclip_sfx_h0198_jp.ab</v>
       </c>
       <c r="C127">
-        <v>922763</v>
+        <v>1080989</v>
       </c>
       <c r="D127" t="str">
         <v>Stage_1</v>
@@ -2920,18 +2920,18 @@
         <v>0</v>
       </c>
       <c r="F127" t="str">
-        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
+        <v>f5a22a69326fdd5d7ef8a65fc706fb741e26cda32b3ade0f541aacdbcb3fbb89</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="B128" t="str">
-        <v>audioclip_sfx_h0200_jp.ab</v>
+        <v>audioclip_sfx_h0199_jp.ab</v>
       </c>
       <c r="C128">
-        <v>677161</v>
+        <v>922763</v>
       </c>
       <c r="D128" t="str">
         <v>Stage_1</v>
@@ -2940,18 +2940,18 @@
         <v>0</v>
       </c>
       <c r="F128" t="str">
-        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
+        <v>5b6c8f41c7ff1f689a029beaaf2a2eefdf6bb1cebb95fc91e982adbbf9a57e73</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="B129" t="str">
-        <v>audioclip_sfx_h0201_jp.ab</v>
+        <v>audioclip_sfx_h0200_jp.ab</v>
       </c>
       <c r="C129">
-        <v>810546</v>
+        <v>677161</v>
       </c>
       <c r="D129" t="str">
         <v>Stage_1</v>
@@ -2960,18 +2960,18 @@
         <v>0</v>
       </c>
       <c r="F129" t="str">
-        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
+        <v>112a0a1d3479e0e12d69e83453597649fa05aa4739832a5dad1d412be6d231a4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="B130" t="str">
-        <v>audioclip_sfx_h3190_jp.ab</v>
+        <v>audioclip_sfx_h0201_jp.ab</v>
       </c>
       <c r="C130">
-        <v>274108</v>
+        <v>810546</v>
       </c>
       <c r="D130" t="str">
         <v>Stage_1</v>
@@ -2980,18 +2980,18 @@
         <v>0</v>
       </c>
       <c r="F130" t="str">
-        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
+        <v>734bb748f283ac870d684d0c352eb9bc07292566a2320b1b0bb2f62c4bc23045</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="B131" t="str">
-        <v>audioclip_sfx_h3401_jp.ab</v>
+        <v>audioclip_sfx_h3190_jp.ab</v>
       </c>
       <c r="C131">
-        <v>220242</v>
+        <v>274108</v>
       </c>
       <c r="D131" t="str">
         <v>Stage_1</v>
@@ -3000,18 +3000,18 @@
         <v>0</v>
       </c>
       <c r="F131" t="str">
-        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
+        <v>ff2b67b383dd5dcd21fc2cb228bf031f028a7023bf3d27a750e6fc9ddeffddea</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="B132" t="str">
-        <v>audioclip_sfx_m0011_jp.ab</v>
+        <v>audioclip_sfx_h3401_jp.ab</v>
       </c>
       <c r="C132">
-        <v>95904</v>
+        <v>220242</v>
       </c>
       <c r="D132" t="str">
         <v>Stage_1</v>
@@ -3020,18 +3020,18 @@
         <v>0</v>
       </c>
       <c r="F132" t="str">
-        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
+        <v>f7ed0822345a362d64a8d207aa54e082a1ee5f36b3f5f1cb5a032e8fa64b1630</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="B133" t="str">
-        <v>audioclip_sfx_r0034_jp.ab</v>
+        <v>audioclip_sfx_m0011_jp.ab</v>
       </c>
       <c r="C133">
-        <v>1090288</v>
+        <v>95904</v>
       </c>
       <c r="D133" t="str">
         <v>Stage_1</v>
@@ -3040,18 +3040,18 @@
         <v>0</v>
       </c>
       <c r="F133" t="str">
-        <v>d7b117e4da4e747f58f45bc8f0d19c995ac2e2cf223fe0de163d4637a3361bf7</v>
+        <v>99ba486a6e6078d653a04bb2faad409b0090759aa92ef63f4592f676e232f139</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="B134" t="str">
-        <v>audioclip_sfx_r0160_jp.ab</v>
+        <v>audioclip_sfx_r0034_jp.ab</v>
       </c>
       <c r="C134">
-        <v>4141810</v>
+        <v>1090288</v>
       </c>
       <c r="D134" t="str">
         <v>Stage_1</v>
@@ -3060,18 +3060,18 @@
         <v>0</v>
       </c>
       <c r="F134" t="str">
-        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
+        <v>d7b117e4da4e747f58f45bc8f0d19c995ac2e2cf223fe0de163d4637a3361bf7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="B135" t="str">
-        <v>audioclip_sfx_r0173_jp.ab</v>
+        <v>audioclip_sfx_r0160_jp.ab</v>
       </c>
       <c r="C135">
-        <v>1438335</v>
+        <v>4141810</v>
       </c>
       <c r="D135" t="str">
         <v>Stage_1</v>
@@ -3080,18 +3080,18 @@
         <v>0</v>
       </c>
       <c r="F135" t="str">
-        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
+        <v>48e340b6ed44e8fedbfa6d4e614d7e6d7e3c44a9a700f160cb0566638971a357</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="B136" t="str">
-        <v>audioclip_sfx_t0017_jp.ab</v>
+        <v>audioclip_sfx_r0173_jp.ab</v>
       </c>
       <c r="C136">
-        <v>883153</v>
+        <v>1438335</v>
       </c>
       <c r="D136" t="str">
         <v>Stage_1</v>
@@ -3100,18 +3100,18 @@
         <v>0</v>
       </c>
       <c r="F136" t="str">
-        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
+        <v>2e5979b079333271d11f2e4c26fc39700f7e6e3cc97654e7ee2d9fcc56e0b3bd</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="B137" t="str">
-        <v>audioclip_sfx_t0026_jp.ab</v>
+        <v>audioclip_sfx_t0017_jp.ab</v>
       </c>
       <c r="C137">
-        <v>903934</v>
+        <v>883153</v>
       </c>
       <c r="D137" t="str">
         <v>Stage_1</v>
@@ -3120,18 +3120,18 @@
         <v>0</v>
       </c>
       <c r="F137" t="str">
-        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
+        <v>912f6d0b814da65316f755a84c88ce1dca0e139aa54a4e9e2ed5427d7031fb6c</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="B138" t="str">
-        <v>audioclip_sfx_t0027_jp.ab</v>
+        <v>audioclip_sfx_t0026_jp.ab</v>
       </c>
       <c r="C138">
-        <v>1201327</v>
+        <v>903934</v>
       </c>
       <c r="D138" t="str">
         <v>Stage_1</v>
@@ -3140,18 +3140,18 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>667d0ef09008f1d56bc2f835053853ca5bcb8d6899e2310ada99b8f8d51ae465</v>
+        <v>3dfd0f83b74c86a670132c3ce3e22d74b13c0d7e746577231ffd09e161c04462</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="B139" t="str">
-        <v>audioclip_sfx_t0032_jp.ab</v>
+        <v>audioclip_sfx_t0027_jp.ab</v>
       </c>
       <c r="C139">
-        <v>995070</v>
+        <v>1201327</v>
       </c>
       <c r="D139" t="str">
         <v>Stage_1</v>
@@ -3160,18 +3160,18 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
+        <v>667d0ef09008f1d56bc2f835053853ca5bcb8d6899e2310ada99b8f8d51ae465</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="B140" t="str">
-        <v>audioclip_sfx_t0033_jp.ab</v>
+        <v>audioclip_sfx_t0032_jp.ab</v>
       </c>
       <c r="C140">
-        <v>1222380</v>
+        <v>995070</v>
       </c>
       <c r="D140" t="str">
         <v>Stage_1</v>
@@ -3180,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="F140" t="str">
-        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
+        <v>f246aab94640912a8db3624fcc925612c68dbce878d17093a435c9215ea0fb50</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="B141" t="str">
-        <v>audioclip_sfx_t0039_jp.ab</v>
+        <v>audioclip_sfx_t0033_jp.ab</v>
       </c>
       <c r="C141">
-        <v>694956</v>
+        <v>1222380</v>
       </c>
       <c r="D141" t="str">
         <v>Stage_1</v>
@@ -3200,18 +3200,18 @@
         <v>0</v>
       </c>
       <c r="F141" t="str">
-        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
+        <v>24c47b082a8c8e1cc2a8c9721031ae4a14ea9e7955b7f635bc6d5a6a2522a9f6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="B142" t="str">
-        <v>audioclip_sfx_t0044_jp.ab</v>
+        <v>audioclip_sfx_t0039_jp.ab</v>
       </c>
       <c r="C142">
-        <v>3816616</v>
+        <v>694956</v>
       </c>
       <c r="D142" t="str">
         <v>Stage_1</v>
@@ -3220,18 +3220,18 @@
         <v>0</v>
       </c>
       <c r="F142" t="str">
-        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
+        <v>18520fec42c30fb476d9951752af214e43cba15e97eb970879702a7ccd91ff4d</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="B143" t="str">
-        <v>audioclip_sfx_t0049_jp.ab</v>
+        <v>audioclip_sfx_t0044_jp.ab</v>
       </c>
       <c r="C143">
-        <v>1950946</v>
+        <v>3816616</v>
       </c>
       <c r="D143" t="str">
         <v>Stage_1</v>
@@ -3240,18 +3240,18 @@
         <v>0</v>
       </c>
       <c r="F143" t="str">
-        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
+        <v>d46983f547518df61c0d4a350ab4241b143c82e7c652833accb2eda39cc1474a</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="B144" t="str">
-        <v>audioclip_sfx_t0153_jp.ab</v>
+        <v>audioclip_sfx_t0049_jp.ab</v>
       </c>
       <c r="C144">
-        <v>2974088</v>
+        <v>1950946</v>
       </c>
       <c r="D144" t="str">
         <v>Stage_1</v>
@@ -3260,18 +3260,18 @@
         <v>0</v>
       </c>
       <c r="F144" t="str">
-        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
+        <v>65e5cd7612c963bd2c958318f0597047db3c0d13d8d0dcfdd3c821cba5acc851</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="B145" t="str">
-        <v>audioclip_sfx_t0155_jp.ab</v>
+        <v>audioclip_sfx_t0153_jp.ab</v>
       </c>
       <c r="C145">
-        <v>1786522</v>
+        <v>2974088</v>
       </c>
       <c r="D145" t="str">
         <v>Stage_1</v>
@@ -3280,18 +3280,18 @@
         <v>0</v>
       </c>
       <c r="F145" t="str">
-        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
+        <v>ef94f1d051f23ab18dd8efc627839d04213f8e6cbaf37feb208768473be26218</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="B146" t="str">
-        <v>audioclip_sfx_t0156_jp.ab</v>
+        <v>audioclip_sfx_t0155_jp.ab</v>
       </c>
       <c r="C146">
-        <v>2340688</v>
+        <v>1786522</v>
       </c>
       <c r="D146" t="str">
         <v>Stage_1</v>
@@ -3300,18 +3300,18 @@
         <v>0</v>
       </c>
       <c r="F146" t="str">
-        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
+        <v>0e17671054e385125c95b0fea4130690d15a73117a98aea04ceb1f23224b9349</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="B147" t="str">
-        <v>audioclip_sfx_t0158_jp.ab</v>
+        <v>audioclip_sfx_t0156_jp.ab</v>
       </c>
       <c r="C147">
-        <v>1950951</v>
+        <v>2340688</v>
       </c>
       <c r="D147" t="str">
         <v>Stage_1</v>
@@ -3320,18 +3320,18 @@
         <v>0</v>
       </c>
       <c r="F147" t="str">
-        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
+        <v>5bf776a5f04b059e7b8774baa909c6e2629d51e9496d59e1b737d766387e205a</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="B148" t="str">
-        <v>audioclip_sfx_t0180_jp.ab</v>
+        <v>audioclip_sfx_t0158_jp.ab</v>
       </c>
       <c r="C148">
-        <v>2411027</v>
+        <v>1950951</v>
       </c>
       <c r="D148" t="str">
         <v>Stage_1</v>
@@ -3340,18 +3340,18 @@
         <v>0</v>
       </c>
       <c r="F148" t="str">
-        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
+        <v>e2c76bb4be064f1ec4bda1c7fe67337a33fac6d19547b73ffc24e08ccb3c17d2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="B149" t="str">
-        <v>audioclip_sfx_t0181_jp.ab</v>
+        <v>audioclip_sfx_t0180_jp.ab</v>
       </c>
       <c r="C149">
-        <v>2120098</v>
+        <v>2411027</v>
       </c>
       <c r="D149" t="str">
         <v>Stage_1</v>
@@ -3360,18 +3360,18 @@
         <v>0</v>
       </c>
       <c r="F149" t="str">
-        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
+        <v>fc61bae2b5268f4b944bfb96fc7f97eed842a2f844745545673b4783902ccb2d</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="B150" t="str">
-        <v>audioclip_sfx_t0182_jp.ab</v>
+        <v>audioclip_sfx_t0181_jp.ab</v>
       </c>
       <c r="C150">
-        <v>374486</v>
+        <v>2120098</v>
       </c>
       <c r="D150" t="str">
         <v>Stage_1</v>
@@ -3380,18 +3380,18 @@
         <v>0</v>
       </c>
       <c r="F150" t="str">
-        <v>146fe2f3f41260aaf1c14e7ff258f16f6396da62033b3664ba13105530d1953b</v>
+        <v>11c6f09d273d3b2142964843bd65adfee748bbe5dace26b1bee7256da1d2c519</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="B151" t="str">
-        <v>audioclip_sfx_t0184_jp.ab</v>
+        <v>audioclip_sfx_t0182_jp.ab</v>
       </c>
       <c r="C151">
-        <v>1735997</v>
+        <v>374486</v>
       </c>
       <c r="D151" t="str">
         <v>Stage_1</v>
@@ -3400,18 +3400,18 @@
         <v>0</v>
       </c>
       <c r="F151" t="str">
-        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
+        <v>146fe2f3f41260aaf1c14e7ff258f16f6396da62033b3664ba13105530d1953b</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="B152" t="str">
-        <v>audioclip_sfx_t3189_jp.ab</v>
+        <v>audioclip_sfx_t0184_jp.ab</v>
       </c>
       <c r="C152">
-        <v>316197</v>
+        <v>1735997</v>
       </c>
       <c r="D152" t="str">
         <v>Stage_1</v>
@@ -3420,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="F152" t="str">
-        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
+        <v>5d0d0d7c908bbf795dc43e75fd0eb967492452ee6f9022e244c5d1cc336701a7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="B153" t="str">
-        <v>audioclip_sfx_t3191_jp.ab</v>
+        <v>audioclip_sfx_t3189_jp.ab</v>
       </c>
       <c r="C153">
-        <v>164019</v>
+        <v>316197</v>
       </c>
       <c r="D153" t="str">
         <v>Stage_1</v>
@@ -3440,18 +3440,18 @@
         <v>0</v>
       </c>
       <c r="F153" t="str">
-        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
+        <v>c3c5daaaad42d07d0dd9630023e12941464ddad3ed7a914e428dd5beedf12136</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="B154" t="str">
-        <v>audioclip_sfx_t3259_jp.ab</v>
+        <v>audioclip_sfx_t3191_jp.ab</v>
       </c>
       <c r="C154">
-        <v>214542</v>
+        <v>164019</v>
       </c>
       <c r="D154" t="str">
         <v>Stage_1</v>
@@ -3460,18 +3460,18 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
+        <v>dcd2b00ab86a9e9a89c464522ae65ab4d8d0a2a5f769ab38563ce2e128c1fdb1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="B155" t="str">
-        <v>audioclip_sfx_t3260_jp.ab</v>
+        <v>audioclip_sfx_t3259_jp.ab</v>
       </c>
       <c r="C155">
-        <v>310371</v>
+        <v>214542</v>
       </c>
       <c r="D155" t="str">
         <v>Stage_1</v>
@@ -3480,18 +3480,18 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
+        <v>9837e74ee4f700592efe381a07453cbc200ce776bc77b2d9556b8beebea35fd4</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="B156" t="str">
-        <v>audioclip_sfx_t3403_jp.ab</v>
+        <v>audioclip_sfx_t3260_jp.ab</v>
       </c>
       <c r="C156">
-        <v>288932</v>
+        <v>310371</v>
       </c>
       <c r="D156" t="str">
         <v>Stage_1</v>
@@ -3500,18 +3500,18 @@
         <v>0</v>
       </c>
       <c r="F156" t="str">
-        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
+        <v>73d3a229d5513eda9833a12a5162839ed436191ceb996f786361f69a95ba7717</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="B157" t="str">
-        <v>audioclip_sfx_t3407_jp.ab</v>
+        <v>audioclip_sfx_t3403_jp.ab</v>
       </c>
       <c r="C157">
-        <v>270546</v>
+        <v>288932</v>
       </c>
       <c r="D157" t="str">
         <v>Stage_1</v>
@@ -3520,18 +3520,18 @@
         <v>0</v>
       </c>
       <c r="F157" t="str">
-        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
+        <v>085bccc56b344d6f7e0e5e6a6db6c7db8a2e35007794407f3eb68c98a06c4917</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="B158" t="str">
-        <v>character_largeimage_b0001.ab</v>
+        <v>audioclip_sfx_t3407_jp.ab</v>
       </c>
       <c r="C158">
-        <v>3081876</v>
+        <v>270546</v>
       </c>
       <c r="D158" t="str">
         <v>Stage_1</v>
@@ -3540,18 +3540,18 @@
         <v>0</v>
       </c>
       <c r="F158" t="str">
-        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
+        <v>07d1fcf85cbb3362fcbc04945d9efe82e0adad3d730b7bc872a21394d919d60e</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="B159" t="str">
-        <v>character_largeimage_b0015.ab</v>
+        <v>character_largeimage_b0001.ab</v>
       </c>
       <c r="C159">
-        <v>3190051</v>
+        <v>3081876</v>
       </c>
       <c r="D159" t="str">
         <v>Stage_1</v>
@@ -3560,18 +3560,18 @@
         <v>0</v>
       </c>
       <c r="F159" t="str">
-        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
+        <v>25086db6fe5cae50b529182981d57b67a89cbcd5dde5c0cb6c40e9344b27142b</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="B160" t="str">
-        <v>character_largeimage_b0028.ab</v>
+        <v>character_largeimage_b0015.ab</v>
       </c>
       <c r="C160">
-        <v>3064592</v>
+        <v>3190051</v>
       </c>
       <c r="D160" t="str">
         <v>Stage_1</v>
@@ -3580,18 +3580,18 @@
         <v>0</v>
       </c>
       <c r="F160" t="str">
-        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
+        <v>446376ac8ab5c6c9405eeff325dc371eccea364ac367bfdf5ff1e27c6788a8ee</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="B161" t="str">
-        <v>character_largeimage_b0037.ab</v>
+        <v>character_largeimage_b0028.ab</v>
       </c>
       <c r="C161">
-        <v>3106959</v>
+        <v>3064592</v>
       </c>
       <c r="D161" t="str">
         <v>Stage_1</v>
@@ -3600,18 +3600,18 @@
         <v>0</v>
       </c>
       <c r="F161" t="str">
-        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
+        <v>2d0ad2f08bb6c19436d78beb9a20b69f0f8aedd361f9a5aafbf0bc8d941b5efe</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="B162" t="str">
-        <v>character_largeimage_e0002.ab</v>
+        <v>character_largeimage_b0037.ab</v>
       </c>
       <c r="C162">
-        <v>3228411</v>
+        <v>3106959</v>
       </c>
       <c r="D162" t="str">
         <v>Stage_1</v>
@@ -3620,18 +3620,18 @@
         <v>0</v>
       </c>
       <c r="F162" t="str">
-        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
+        <v>958efd2df27263229e9267e9676e43e47a0cd1b8305a7f255ec1a5c589da2830</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="B163" t="str">
-        <v>character_largeimage_e0046.ab</v>
+        <v>character_largeimage_e0002.ab</v>
       </c>
       <c r="C163">
-        <v>821633</v>
+        <v>3228411</v>
       </c>
       <c r="D163" t="str">
         <v>Stage_1</v>
@@ -3640,18 +3640,18 @@
         <v>0</v>
       </c>
       <c r="F163" t="str">
-        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
+        <v>69228085a2de04aafeb82afee9f95934f0694ff144400f443c9f30538b39bf02</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="B164" t="str">
-        <v>character_largeimage_h0000.ab</v>
+        <v>character_largeimage_e0046.ab</v>
       </c>
       <c r="C164">
-        <v>560241</v>
+        <v>821633</v>
       </c>
       <c r="D164" t="str">
         <v>Stage_1</v>
@@ -3660,18 +3660,18 @@
         <v>0</v>
       </c>
       <c r="F164" t="str">
-        <v>1a1a45de99acacf66c504bd7f6660aec45a246fcb3328df1ac6d58dd0d024fe7</v>
+        <v>e9c28ba4f24b58843ccb8ab86e72dd27f7fa507544f276757cba5d568623bc97</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="B165" t="str">
-        <v>character_largeimage_h0003.ab</v>
+        <v>character_largeimage_h0000.ab</v>
       </c>
       <c r="C165">
-        <v>3173184</v>
+        <v>223504</v>
       </c>
       <c r="D165" t="str">
         <v>Stage_1</v>
@@ -3680,18 +3680,18 @@
         <v>0</v>
       </c>
       <c r="F165" t="str">
-        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
+        <v>f9ceeb754056e27054f7e0f478870014a2c44c79b37e64fc2878d2b313bd4288</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="B166" t="str">
-        <v>character_largeimage_h0004.ab</v>
+        <v>character_largeimage_h0003.ab</v>
       </c>
       <c r="C166">
-        <v>3286445</v>
+        <v>3173184</v>
       </c>
       <c r="D166" t="str">
         <v>Stage_1</v>
@@ -3700,18 +3700,18 @@
         <v>0</v>
       </c>
       <c r="F166" t="str">
-        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
+        <v>dfe426dbf3cef6081b0fba5e21c31e0c9d12a7869f5dea10fa257e31ea17186a</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="B167" t="str">
-        <v>character_largeimage_h0005.ab</v>
+        <v>character_largeimage_h0004.ab</v>
       </c>
       <c r="C167">
-        <v>3140118</v>
+        <v>3286445</v>
       </c>
       <c r="D167" t="str">
         <v>Stage_1</v>
@@ -3720,18 +3720,18 @@
         <v>0</v>
       </c>
       <c r="F167" t="str">
-        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
+        <v>0bd134711721a429c0312c476bcd19b24aacba2221e6bfb5512f60bd13bcc539</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="B168" t="str">
-        <v>character_largeimage_h0006.ab</v>
+        <v>character_largeimage_h0005.ab</v>
       </c>
       <c r="C168">
-        <v>3214863</v>
+        <v>3140118</v>
       </c>
       <c r="D168" t="str">
         <v>Stage_1</v>
@@ -3740,18 +3740,18 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
+        <v>4025cb56a80e7a0f92c05b45eeedba6e311c3eb5eb18430c058d79839bd168cf</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="B169" t="str">
-        <v>character_largeimage_h0007.ab</v>
+        <v>character_largeimage_h0006.ab</v>
       </c>
       <c r="C169">
-        <v>816767</v>
+        <v>3214863</v>
       </c>
       <c r="D169" t="str">
         <v>Stage_1</v>
@@ -3760,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
+        <v>08a453ee43bf3a4fb9eb5a360fc0f239635451d7f09d5d0939054a2e62deec22</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="B170" t="str">
-        <v>character_largeimage_h0008.ab</v>
+        <v>character_largeimage_h0007.ab</v>
       </c>
       <c r="C170">
-        <v>723740</v>
+        <v>816767</v>
       </c>
       <c r="D170" t="str">
         <v>Stage_1</v>
@@ -3780,18 +3780,18 @@
         <v>0</v>
       </c>
       <c r="F170" t="str">
-        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
+        <v>50e175dd0f9eb0df4ecb6c37843cb39805aabebea7caaed070c65e415391de44</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="B171" t="str">
-        <v>character_largeimage_h0009.ab</v>
+        <v>character_largeimage_h0008.ab</v>
       </c>
       <c r="C171">
-        <v>844714</v>
+        <v>723740</v>
       </c>
       <c r="D171" t="str">
         <v>Stage_1</v>
@@ -3800,18 +3800,18 @@
         <v>0</v>
       </c>
       <c r="F171" t="str">
-        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
+        <v>0f717124dca3d3f042b1a8e921b8e62e79d5a500822d6fafb734d0fd32a948d2</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="B172" t="str">
-        <v>character_largeimage_h0010.ab</v>
+        <v>character_largeimage_h0009.ab</v>
       </c>
       <c r="C172">
-        <v>3901688</v>
+        <v>844714</v>
       </c>
       <c r="D172" t="str">
         <v>Stage_1</v>
@@ -3820,18 +3820,18 @@
         <v>0</v>
       </c>
       <c r="F172" t="str">
-        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
+        <v>9458429f4cdf71c697dd400454cb83585223a22e3150fe92d298d8921aad28e4</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="B173" t="str">
-        <v>character_largeimage_h0012.ab</v>
+        <v>character_largeimage_h0010.ab</v>
       </c>
       <c r="C173">
-        <v>841468</v>
+        <v>3901688</v>
       </c>
       <c r="D173" t="str">
         <v>Stage_1</v>
@@ -3840,18 +3840,18 @@
         <v>0</v>
       </c>
       <c r="F173" t="str">
-        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
+        <v>576c23c8d4e7f5714aac1e5597c916c8cc08b559611098340b14612aada54014</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="B174" t="str">
-        <v>character_largeimage_h0013.ab</v>
+        <v>character_largeimage_h0012.ab</v>
       </c>
       <c r="C174">
-        <v>762930</v>
+        <v>841468</v>
       </c>
       <c r="D174" t="str">
         <v>Stage_1</v>
@@ -3860,18 +3860,18 @@
         <v>0</v>
       </c>
       <c r="F174" t="str">
-        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
+        <v>f057d7aa25cbf87e78729ccb2a8a5df96c5c2300ae2a9a076c48e2bf8d33b489</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="B175" t="str">
-        <v>character_largeimage_h0014.ab</v>
+        <v>character_largeimage_h0013.ab</v>
       </c>
       <c r="C175">
-        <v>825409</v>
+        <v>762930</v>
       </c>
       <c r="D175" t="str">
         <v>Stage_1</v>
@@ -3880,18 +3880,18 @@
         <v>0</v>
       </c>
       <c r="F175" t="str">
-        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
+        <v>45619ca106a6fa27fb2927c2ae833ab4a8120089689596bb1032b1b27bb88666</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="B176" t="str">
-        <v>character_largeimage_h0016.ab</v>
+        <v>character_largeimage_h0014.ab</v>
       </c>
       <c r="C176">
-        <v>761788</v>
+        <v>825409</v>
       </c>
       <c r="D176" t="str">
         <v>Stage_1</v>
@@ -3900,18 +3900,18 @@
         <v>0</v>
       </c>
       <c r="F176" t="str">
-        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
+        <v>790d633b02511808b92add74951878f8aee6390b6331da25da693b2e474f21a2</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="B177" t="str">
-        <v>character_largeimage_h0018.ab</v>
+        <v>character_largeimage_h0016.ab</v>
       </c>
       <c r="C177">
-        <v>3161974</v>
+        <v>761788</v>
       </c>
       <c r="D177" t="str">
         <v>Stage_1</v>
@@ -3920,18 +3920,18 @@
         <v>0</v>
       </c>
       <c r="F177" t="str">
-        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
+        <v>47fcff2abb9ced0cb7bd498b0dbb7bc86d07e86142015a367771108da0d0cac3</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="B178" t="str">
-        <v>character_largeimage_h0020.ab</v>
+        <v>character_largeimage_h0018.ab</v>
       </c>
       <c r="C178">
-        <v>3836054</v>
+        <v>3161974</v>
       </c>
       <c r="D178" t="str">
         <v>Stage_1</v>
@@ -3940,18 +3940,18 @@
         <v>0</v>
       </c>
       <c r="F178" t="str">
-        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
+        <v>57d58af4766a9bc0f9c2602126cf9c912daccd933bf0f2b9f21c94a8c486834c</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="B179" t="str">
-        <v>character_largeimage_h0021.ab</v>
+        <v>character_largeimage_h0020.ab</v>
       </c>
       <c r="C179">
-        <v>4023230</v>
+        <v>3836054</v>
       </c>
       <c r="D179" t="str">
         <v>Stage_1</v>
@@ -3960,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="F179" t="str">
-        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
+        <v>8d8aadca7dde3380b8eabd1eba67db6980c1ed701b5c6a4040ae05d065489a28</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="B180" t="str">
-        <v>character_largeimage_h0022.ab</v>
+        <v>character_largeimage_h0021.ab</v>
       </c>
       <c r="C180">
-        <v>3228429</v>
+        <v>4023230</v>
       </c>
       <c r="D180" t="str">
         <v>Stage_1</v>
@@ -3980,18 +3980,18 @@
         <v>0</v>
       </c>
       <c r="F180" t="str">
-        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
+        <v>59e6a9b649ec52086d2be189404d6f686ab4f706d21633065b15aea451ebb120</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="B181" t="str">
-        <v>character_largeimage_h0023.ab</v>
+        <v>character_largeimage_h0022.ab</v>
       </c>
       <c r="C181">
-        <v>3193169</v>
+        <v>3228429</v>
       </c>
       <c r="D181" t="str">
         <v>Stage_1</v>
@@ -4000,18 +4000,18 @@
         <v>0</v>
       </c>
       <c r="F181" t="str">
-        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
+        <v>2492e05da8af03cff7a450a837598085157efffd16bf0911fc0baacb1a493676</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="B182" t="str">
-        <v>character_largeimage_h0024.ab</v>
+        <v>character_largeimage_h0023.ab</v>
       </c>
       <c r="C182">
-        <v>3210858</v>
+        <v>3193169</v>
       </c>
       <c r="D182" t="str">
         <v>Stage_1</v>
@@ -4020,18 +4020,18 @@
         <v>0</v>
       </c>
       <c r="F182" t="str">
-        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
+        <v>5ecbf4bbcd9e5567815aca48a52fcacbdece20a3ce4e4ff7a935c7b5238cda51</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="B183" t="str">
-        <v>character_largeimage_h0025.ab</v>
+        <v>character_largeimage_h0024.ab</v>
       </c>
       <c r="C183">
-        <v>3139182</v>
+        <v>3210858</v>
       </c>
       <c r="D183" t="str">
         <v>Stage_1</v>
@@ -4040,18 +4040,18 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
+        <v>e525322ddb7f87e2848a693170a5bea1ee2f8869b8a4b29acd52c96c4486eb56</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="B184" t="str">
-        <v>character_largeimage_h0029.ab</v>
+        <v>character_largeimage_h0025.ab</v>
       </c>
       <c r="C184">
-        <v>3882737</v>
+        <v>3139182</v>
       </c>
       <c r="D184" t="str">
         <v>Stage_1</v>
@@ -4060,18 +4060,18 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
+        <v>3898f7e37cae14d2b0faaa966d26acbeeb0719f2a5f54959774953ee70a9b676</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="B185" t="str">
-        <v>character_largeimage_h0030.ab</v>
+        <v>character_largeimage_h0029.ab</v>
       </c>
       <c r="C185">
-        <v>2962984</v>
+        <v>3882737</v>
       </c>
       <c r="D185" t="str">
         <v>Stage_1</v>
@@ -4080,18 +4080,18 @@
         <v>0</v>
       </c>
       <c r="F185" t="str">
-        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
+        <v>63efe1ff9806d550f361ec08d54f8ea90a68b4f04abadd40bf317a2277c9bc39</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="B186" t="str">
-        <v>character_largeimage_h0031.ab</v>
+        <v>character_largeimage_h0030.ab</v>
       </c>
       <c r="C186">
-        <v>3065527</v>
+        <v>2962984</v>
       </c>
       <c r="D186" t="str">
         <v>Stage_1</v>
@@ -4100,18 +4100,18 @@
         <v>0</v>
       </c>
       <c r="F186" t="str">
-        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
+        <v>09b243ec41dd99172f91c9a9c0d5f3c08d368cdfb68ce119ba8bcbc138169061</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="B187" t="str">
-        <v>character_largeimage_h0035.ab</v>
+        <v>character_largeimage_h0031.ab</v>
       </c>
       <c r="C187">
-        <v>3144785</v>
+        <v>3065527</v>
       </c>
       <c r="D187" t="str">
         <v>Stage_1</v>
@@ -4120,18 +4120,18 @@
         <v>0</v>
       </c>
       <c r="F187" t="str">
-        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
+        <v>4a3fd3bee1e285b1310b8e3efd545461449fce47f54b6c7108f76b63ebc2e16e</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="B188" t="str">
-        <v>character_largeimage_h0036.ab</v>
+        <v>character_largeimage_h0035.ab</v>
       </c>
       <c r="C188">
-        <v>2778836</v>
+        <v>3144785</v>
       </c>
       <c r="D188" t="str">
         <v>Stage_1</v>
@@ -4140,18 +4140,18 @@
         <v>0</v>
       </c>
       <c r="F188" t="str">
-        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
+        <v>9861ad23eb8d652fbaf21e59dd545db59884527009f8d29d0637b7ed6c3e922b</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="B189" t="str">
-        <v>character_largeimage_h0038.ab</v>
+        <v>character_largeimage_h0036.ab</v>
       </c>
       <c r="C189">
-        <v>866673</v>
+        <v>2778836</v>
       </c>
       <c r="D189" t="str">
         <v>Stage_1</v>
@@ -4160,18 +4160,18 @@
         <v>0</v>
       </c>
       <c r="F189" t="str">
-        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
+        <v>9aa2e91edd760a6d9f9db05f2d2d8e96b09d5096947c8ad15b3186f9baa9ecc2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="B190" t="str">
-        <v>character_largeimage_h0040.ab</v>
+        <v>character_largeimage_h0038.ab</v>
       </c>
       <c r="C190">
-        <v>844510</v>
+        <v>866673</v>
       </c>
       <c r="D190" t="str">
         <v>Stage_1</v>
@@ -4180,18 +4180,18 @@
         <v>0</v>
       </c>
       <c r="F190" t="str">
-        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
+        <v>f4fd25b58905d8082046b04cf6e3aab4fb3b8889774979cf27818f48fe37f3aa</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="B191" t="str">
-        <v>character_largeimage_h0041.ab</v>
+        <v>character_largeimage_h0040.ab</v>
       </c>
       <c r="C191">
-        <v>804577</v>
+        <v>844510</v>
       </c>
       <c r="D191" t="str">
         <v>Stage_1</v>
@@ -4200,18 +4200,18 @@
         <v>0</v>
       </c>
       <c r="F191" t="str">
-        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
+        <v>a3b66f241749cd4ae61f414b557f6eee6e1c07216c9a0040be2992b9382a7d6d</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="B192" t="str">
-        <v>character_largeimage_h0042.ab</v>
+        <v>character_largeimage_h0041.ab</v>
       </c>
       <c r="C192">
-        <v>799739</v>
+        <v>804577</v>
       </c>
       <c r="D192" t="str">
         <v>Stage_1</v>
@@ -4220,18 +4220,18 @@
         <v>0</v>
       </c>
       <c r="F192" t="str">
-        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
+        <v>77f3bb1d7531431888c15cca5a2e159adee3d2b9a0341b689c0fa625ccacb090</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="B193" t="str">
-        <v>character_largeimage_h0043.ab</v>
+        <v>character_largeimage_h0042.ab</v>
       </c>
       <c r="C193">
-        <v>3171180</v>
+        <v>799739</v>
       </c>
       <c r="D193" t="str">
         <v>Stage_1</v>
@@ -4240,18 +4240,18 @@
         <v>0</v>
       </c>
       <c r="F193" t="str">
-        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
+        <v>9f1c090e112ea2d94463807c0ef1ab8a8a4a40bcf7526b37f38bee13fbbe8813</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="B194" t="str">
-        <v>character_largeimage_h0045.ab</v>
+        <v>character_largeimage_h0043.ab</v>
       </c>
       <c r="C194">
-        <v>830305</v>
+        <v>3171180</v>
       </c>
       <c r="D194" t="str">
         <v>Stage_1</v>
@@ -4260,18 +4260,18 @@
         <v>0</v>
       </c>
       <c r="F194" t="str">
-        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
+        <v>5a88a87c5382f884c3c8c5c6dab1856bbe1db0ad30dcfaa47c0cc7a659507742</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="B195" t="str">
-        <v>character_largeimage_h0047.ab</v>
+        <v>character_largeimage_h0045.ab</v>
       </c>
       <c r="C195">
-        <v>2503101</v>
+        <v>830305</v>
       </c>
       <c r="D195" t="str">
         <v>Stage_1</v>
@@ -4280,18 +4280,18 @@
         <v>0</v>
       </c>
       <c r="F195" t="str">
-        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
+        <v>42538380cabe1eed2349c937433bb39cdb267595d0262883f43efaecc67bf1bd</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="B196" t="str">
-        <v>character_largeimage_h0048.ab</v>
+        <v>character_largeimage_h0047.ab</v>
       </c>
       <c r="C196">
-        <v>2480638</v>
+        <v>2503101</v>
       </c>
       <c r="D196" t="str">
         <v>Stage_1</v>
@@ -4300,18 +4300,18 @@
         <v>0</v>
       </c>
       <c r="F196" t="str">
-        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
+        <v>f37e01da4d3f6d368723c3758b93e4d7324e40d45462d0eab464bbdb7fee1813</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="B197" t="str">
-        <v>character_largeimage_h0097.ab</v>
+        <v>character_largeimage_h0048.ab</v>
       </c>
       <c r="C197">
-        <v>3917014</v>
+        <v>2480638</v>
       </c>
       <c r="D197" t="str">
         <v>Stage_1</v>
@@ -4320,18 +4320,18 @@
         <v>0</v>
       </c>
       <c r="F197" t="str">
-        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
+        <v>9371f8fbaca6dd755f4c4ec657a0b669f7bc77c96b8f919fc47be03ce4241cb3</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="B198" t="str">
-        <v>character_largeimage_h0133.ab</v>
+        <v>character_largeimage_h0097.ab</v>
       </c>
       <c r="C198">
-        <v>2392971</v>
+        <v>3917014</v>
       </c>
       <c r="D198" t="str">
         <v>Stage_1</v>
@@ -4340,18 +4340,18 @@
         <v>0</v>
       </c>
       <c r="F198" t="str">
-        <v>2a0cbbbe87e1c9ae353c83f44171257537a5217c11507de7a90b30c04b6e4bbc</v>
+        <v>15bf84e2c1d607aadd9876cf800eea710a099f47122b0850820fcea6e3bf7592</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="B199" t="str">
-        <v>character_largeimage_h0134.ab</v>
+        <v>character_largeimage_h0133.ab</v>
       </c>
       <c r="C199">
-        <v>2361287</v>
+        <v>2392971</v>
       </c>
       <c r="D199" t="str">
         <v>Stage_1</v>
@@ -4360,18 +4360,18 @@
         <v>0</v>
       </c>
       <c r="F199" t="str">
-        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
+        <v>2a0cbbbe87e1c9ae353c83f44171257537a5217c11507de7a90b30c04b6e4bbc</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="B200" t="str">
-        <v>character_largeimage_h0135.ab</v>
+        <v>character_largeimage_h0134.ab</v>
       </c>
       <c r="C200">
-        <v>3150498</v>
+        <v>2361287</v>
       </c>
       <c r="D200" t="str">
         <v>Stage_1</v>
@@ -4380,18 +4380,18 @@
         <v>0</v>
       </c>
       <c r="F200" t="str">
-        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
+        <v>4db30eda20198fe61a4b461eda322b69d5c22eb501b4aa47b353791a4a4dcbaf</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="B201" t="str">
-        <v>character_largeimage_h0136.ab</v>
+        <v>character_largeimage_h0135.ab</v>
       </c>
       <c r="C201">
-        <v>2383533</v>
+        <v>3150498</v>
       </c>
       <c r="D201" t="str">
         <v>Stage_1</v>
@@ -4400,18 +4400,18 @@
         <v>0</v>
       </c>
       <c r="F201" t="str">
-        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
+        <v>3eb6512d34ba553bde252502c7be952ddaa3f7250083abac1eeed1bd682012f5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="B202" t="str">
-        <v>character_largeimage_h0137.ab</v>
+        <v>character_largeimage_h0136.ab</v>
       </c>
       <c r="C202">
-        <v>4191556</v>
+        <v>2383533</v>
       </c>
       <c r="D202" t="str">
         <v>Stage_1</v>
@@ -4420,18 +4420,18 @@
         <v>0</v>
       </c>
       <c r="F202" t="str">
-        <v>e0f5dccffd9656324e5b1131fa0d2c2b30fb42f455ea36438ef7b08da3e344b6</v>
+        <v>d0b8ffce2b1b424bbf9c738d649ebb63da97f860662786f70a790ea5c7c4aa60</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="B203" t="str">
-        <v>character_largeimage_h0138.ab</v>
+        <v>character_largeimage_h0137.ab</v>
       </c>
       <c r="C203">
-        <v>2335859</v>
+        <v>5022572</v>
       </c>
       <c r="D203" t="str">
         <v>Stage_1</v>
@@ -4440,18 +4440,18 @@
         <v>0</v>
       </c>
       <c r="F203" t="str">
-        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
+        <v>712d121a9f07cef659d7ca815e30eea82c141e7eb06e9a6b315dfe9015c51a78</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="B204" t="str">
-        <v>character_largeimage_h0150.ab</v>
+        <v>character_largeimage_h0138.ab</v>
       </c>
       <c r="C204">
-        <v>2280048</v>
+        <v>2335859</v>
       </c>
       <c r="D204" t="str">
         <v>Stage_1</v>
@@ -4460,18 +4460,18 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
+        <v>0dc6d153ef5887a129b6d95e521314af9b29ffd2a81b9f4c9870d67ebf230a0e</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="B205" t="str">
-        <v>character_largeimage_h0151.ab</v>
+        <v>character_largeimage_h0150.ab</v>
       </c>
       <c r="C205">
-        <v>2139719</v>
+        <v>2280048</v>
       </c>
       <c r="D205" t="str">
         <v>Stage_1</v>
@@ -4480,18 +4480,18 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
+        <v>f9921156cf31a0c863b97bf54358a0d1ef1327265ea7c70476c46ec8b14a3bd0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="B206" t="str">
-        <v>character_largeimage_h0152.ab</v>
+        <v>character_largeimage_h0151.ab</v>
       </c>
       <c r="C206">
-        <v>2204277</v>
+        <v>2139719</v>
       </c>
       <c r="D206" t="str">
         <v>Stage_1</v>
@@ -4500,18 +4500,18 @@
         <v>0</v>
       </c>
       <c r="F206" t="str">
-        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
+        <v>7f34316e33555b35dcc717dbed2f2904a2aa2226ceab3ef7b18239976e7b052f</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="B207" t="str">
-        <v>character_largeimage_h0154.ab</v>
+        <v>character_largeimage_h0152.ab</v>
       </c>
       <c r="C207">
-        <v>2180973</v>
+        <v>2204277</v>
       </c>
       <c r="D207" t="str">
         <v>Stage_1</v>
@@ -4520,18 +4520,18 @@
         <v>0</v>
       </c>
       <c r="F207" t="str">
-        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
+        <v>6b4a55b759bbf139aecb9aeafc5293a505974da6fd274cdd9daf2e3027bc41ab</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="B208" t="str">
-        <v>character_largeimage_h0157.ab</v>
+        <v>character_largeimage_h0154.ab</v>
       </c>
       <c r="C208">
-        <v>2285687</v>
+        <v>2180973</v>
       </c>
       <c r="D208" t="str">
         <v>Stage_1</v>
@@ -4540,18 +4540,18 @@
         <v>0</v>
       </c>
       <c r="F208" t="str">
-        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
+        <v>f0cbc235a0cbdec17879b0353d4d6cbf594b8e83997587cf3daf61da230de544</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="B209" t="str">
-        <v>character_largeimage_h0159.ab</v>
+        <v>character_largeimage_h0157.ab</v>
       </c>
       <c r="C209">
-        <v>2378558</v>
+        <v>2285687</v>
       </c>
       <c r="D209" t="str">
         <v>Stage_1</v>
@@ -4560,18 +4560,18 @@
         <v>0</v>
       </c>
       <c r="F209" t="str">
-        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
+        <v>f98a956af113dde94500c95207b0b697b3d87824f34394979018cfe7eb7ccdcd</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="B210" t="str">
-        <v>character_largeimage_h0161.ab</v>
+        <v>character_largeimage_h0159.ab</v>
       </c>
       <c r="C210">
-        <v>2477651</v>
+        <v>2378558</v>
       </c>
       <c r="D210" t="str">
         <v>Stage_1</v>
@@ -4580,18 +4580,18 @@
         <v>0</v>
       </c>
       <c r="F210" t="str">
-        <v>e03560595d04f066995a1bdf4944e2361d0dbca0e4c9336207a35504be4a368c</v>
+        <v>37a54eb1c5f27bf3e6d4eefad4a857e6947cb2688813dfce1af3d5f10175a133</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="B211" t="str">
-        <v>character_largeimage_h0162.ab</v>
+        <v>character_largeimage_h0161.ab</v>
       </c>
       <c r="C211">
-        <v>786221</v>
+        <v>3309246</v>
       </c>
       <c r="D211" t="str">
         <v>Stage_1</v>
@@ -4600,18 +4600,18 @@
         <v>0</v>
       </c>
       <c r="F211" t="str">
-        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
+        <v>01bed45560848f35b577c0cbf8f2999d3ab60cd53f07915934af9c7d121fda0e</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="B212" t="str">
-        <v>character_largeimage_h0163.ab</v>
+        <v>character_largeimage_h0162.ab</v>
       </c>
       <c r="C212">
-        <v>2106871</v>
+        <v>786221</v>
       </c>
       <c r="D212" t="str">
         <v>Stage_1</v>
@@ -4620,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="F212" t="str">
-        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
+        <v>090b204f9d55258560607d679cd13cc033294cdb826b30556a63f06a0c29b182</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="B213" t="str">
-        <v>character_largeimage_h0164.ab</v>
+        <v>character_largeimage_h0163.ab</v>
       </c>
       <c r="C213">
-        <v>584752</v>
+        <v>2106871</v>
       </c>
       <c r="D213" t="str">
         <v>Stage_1</v>
@@ -4640,18 +4640,18 @@
         <v>0</v>
       </c>
       <c r="F213" t="str">
-        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
+        <v>451ff2525962308b2ffc4a9a97bc6ddf643c7c1109c4b63f3d80e8db3278615e</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="B214" t="str">
-        <v>character_largeimage_h0165.ab</v>
+        <v>character_largeimage_h0164.ab</v>
       </c>
       <c r="C214">
-        <v>817133</v>
+        <v>584752</v>
       </c>
       <c r="D214" t="str">
         <v>Stage_1</v>
@@ -4660,18 +4660,18 @@
         <v>0</v>
       </c>
       <c r="F214" t="str">
-        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
+        <v>4c9f35934c136209c97cab8cd4277e5717ddc3dfeebc60c7d44bc792199d3d08</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="B215" t="str">
-        <v>character_largeimage_h0166.ab</v>
+        <v>character_largeimage_h0165.ab</v>
       </c>
       <c r="C215">
-        <v>784714</v>
+        <v>817133</v>
       </c>
       <c r="D215" t="str">
         <v>Stage_1</v>
@@ -4680,18 +4680,18 @@
         <v>0</v>
       </c>
       <c r="F215" t="str">
-        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
+        <v>068939cdda248e3fedd5b710c0038384e3c20c3a51357401ebec4fce3c4a9bcd</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="B216" t="str">
-        <v>character_largeimage_h0167.ab</v>
+        <v>character_largeimage_h0166.ab</v>
       </c>
       <c r="C216">
-        <v>846144</v>
+        <v>784714</v>
       </c>
       <c r="D216" t="str">
         <v>Stage_1</v>
@@ -4700,18 +4700,18 @@
         <v>0</v>
       </c>
       <c r="F216" t="str">
-        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
+        <v>1494056889b23d75c1261ea9db1a6e2e04caf05472c2d896d344ff1f9651215c</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="B217" t="str">
-        <v>character_largeimage_h0168.ab</v>
+        <v>character_largeimage_h0167.ab</v>
       </c>
       <c r="C217">
-        <v>841637</v>
+        <v>846144</v>
       </c>
       <c r="D217" t="str">
         <v>Stage_1</v>
@@ -4720,18 +4720,18 @@
         <v>0</v>
       </c>
       <c r="F217" t="str">
-        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
+        <v>ec87b271c4e287d888cb792089e488130a2897549287cac24ced5df6633d7464</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="B218" t="str">
-        <v>character_largeimage_h0169.ab</v>
+        <v>character_largeimage_h0168.ab</v>
       </c>
       <c r="C218">
-        <v>847696</v>
+        <v>841637</v>
       </c>
       <c r="D218" t="str">
         <v>Stage_1</v>
@@ -4740,18 +4740,18 @@
         <v>0</v>
       </c>
       <c r="F218" t="str">
-        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
+        <v>5d9c24ae54778f705b4759691dd10cfe92f929dad73e202c50b6bad0fccbab29</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="B219" t="str">
-        <v>character_largeimage_h0170.ab</v>
+        <v>character_largeimage_h0169.ab</v>
       </c>
       <c r="C219">
-        <v>814420</v>
+        <v>847696</v>
       </c>
       <c r="D219" t="str">
         <v>Stage_1</v>
@@ -4760,18 +4760,18 @@
         <v>0</v>
       </c>
       <c r="F219" t="str">
-        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
+        <v>7da893125fa52a0cb9e3f7218c8f9589310ba839b1d2f8503406cfb03feedb8d</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="B220" t="str">
-        <v>character_largeimage_h0171.ab</v>
+        <v>character_largeimage_h0170.ab</v>
       </c>
       <c r="C220">
-        <v>789923</v>
+        <v>814420</v>
       </c>
       <c r="D220" t="str">
         <v>Stage_1</v>
@@ -4780,18 +4780,18 @@
         <v>0</v>
       </c>
       <c r="F220" t="str">
-        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
+        <v>0fe059a58c06fdc1f0a080e71652c60d85fcf3ac59c5033345706aaeb970f325</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="B221" t="str">
-        <v>character_largeimage_h0172.ab</v>
+        <v>character_largeimage_h0171.ab</v>
       </c>
       <c r="C221">
-        <v>809952</v>
+        <v>789923</v>
       </c>
       <c r="D221" t="str">
         <v>Stage_1</v>
@@ -4800,18 +4800,18 @@
         <v>0</v>
       </c>
       <c r="F221" t="str">
-        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
+        <v>2c9c42813196894280f847230de50589d62109e32ea809e44ab0900d084bb269</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="B222" t="str">
-        <v>character_largeimage_h0174.ab</v>
+        <v>character_largeimage_h0172.ab</v>
       </c>
       <c r="C222">
-        <v>827102</v>
+        <v>809952</v>
       </c>
       <c r="D222" t="str">
         <v>Stage_1</v>
@@ -4820,18 +4820,18 @@
         <v>0</v>
       </c>
       <c r="F222" t="str">
-        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
+        <v>fa1cd857c2f877ed2a546094669244868edc41e5759684d4275095978b38e960</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="B223" t="str">
-        <v>character_largeimage_h0175.ab</v>
+        <v>character_largeimage_h0174.ab</v>
       </c>
       <c r="C223">
-        <v>825498</v>
+        <v>827102</v>
       </c>
       <c r="D223" t="str">
         <v>Stage_1</v>
@@ -4840,18 +4840,18 @@
         <v>0</v>
       </c>
       <c r="F223" t="str">
-        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
+        <v>014938cc09dc0456de5bed85ca658ba0d984a2d8a016acc5bffc70ae8767109a</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="B224" t="str">
-        <v>character_largeimage_h0176.ab</v>
+        <v>character_largeimage_h0175.ab</v>
       </c>
       <c r="C224">
-        <v>836955</v>
+        <v>825498</v>
       </c>
       <c r="D224" t="str">
         <v>Stage_1</v>
@@ -4860,18 +4860,18 @@
         <v>0</v>
       </c>
       <c r="F224" t="str">
-        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
+        <v>b101b526e3b3e900f3fba8ba658000e9c21a06da12a97db8e6e1e7c8e71535b9</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="B225" t="str">
-        <v>character_largeimage_h0177.ab</v>
+        <v>character_largeimage_h0176.ab</v>
       </c>
       <c r="C225">
-        <v>812054</v>
+        <v>836955</v>
       </c>
       <c r="D225" t="str">
         <v>Stage_1</v>
@@ -4880,18 +4880,18 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
+        <v>6592f81a7ac9355b57a3ffec72c98d2acf408d582ad1cb75ef6043ba477e66f7</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="B226" t="str">
-        <v>character_largeimage_h0185.ab</v>
+        <v>character_largeimage_h0177.ab</v>
       </c>
       <c r="C226">
-        <v>2445857</v>
+        <v>812054</v>
       </c>
       <c r="D226" t="str">
         <v>Stage_1</v>
@@ -4900,18 +4900,18 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
+        <v>c85ad67e4cf1617895254bcd4ba431865578a73cec3ca75b2619be4e0dabedd5</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="B227" t="str">
-        <v>character_largeimage_h0191.ab</v>
+        <v>character_largeimage_h0185.ab</v>
       </c>
       <c r="C227">
-        <v>835188</v>
+        <v>2445857</v>
       </c>
       <c r="D227" t="str">
         <v>Stage_1</v>
@@ -4920,18 +4920,18 @@
         <v>0</v>
       </c>
       <c r="F227" t="str">
-        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
+        <v>1c528855ee84f7cc57781c3aa9368b519eaf484cda48fbb4aefaa0beeb8088b3</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="B228" t="str">
-        <v>character_largeimage_h0192.ab</v>
+        <v>character_largeimage_h0191.ab</v>
       </c>
       <c r="C228">
-        <v>820544</v>
+        <v>835188</v>
       </c>
       <c r="D228" t="str">
         <v>Stage_1</v>
@@ -4940,18 +4940,18 @@
         <v>0</v>
       </c>
       <c r="F228" t="str">
-        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
+        <v>8cc1ceeef111ddbf41234af9286e40c7cc5baa4126ea8720f4ce770358811b24</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="B229" t="str">
-        <v>character_largeimage_h0198.ab</v>
+        <v>character_largeimage_h0192.ab</v>
       </c>
       <c r="C229">
-        <v>791779</v>
+        <v>820544</v>
       </c>
       <c r="D229" t="str">
         <v>Stage_1</v>
@@ -4960,18 +4960,18 @@
         <v>0</v>
       </c>
       <c r="F229" t="str">
-        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
+        <v>66f7e06ca7522be11f938b76999331189ea77ea974ea39529f915b576818838e</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="B230" t="str">
-        <v>character_largeimage_h0199.ab</v>
+        <v>character_largeimage_h0193.ab</v>
       </c>
       <c r="C230">
-        <v>735348</v>
+        <v>755734</v>
       </c>
       <c r="D230" t="str">
         <v>Stage_1</v>
@@ -4980,18 +4980,18 @@
         <v>0</v>
       </c>
       <c r="F230" t="str">
-        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
+        <v>f69001a50dd4944eb3ed5febf7affdd6935d9856741b1a89e9192d691e725067</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="B231" t="str">
-        <v>character_largeimage_h0200.ab</v>
+        <v>character_largeimage_h0198.ab</v>
       </c>
       <c r="C231">
-        <v>839955</v>
+        <v>791779</v>
       </c>
       <c r="D231" t="str">
         <v>Stage_1</v>
@@ -5000,18 +5000,18 @@
         <v>0</v>
       </c>
       <c r="F231" t="str">
-        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
+        <v>378c0be844a12455728721579b8f021bbf06988bf27ee78fe83f7d69be3bcc50</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="B232" t="str">
-        <v>character_largeimage_h0201.ab</v>
+        <v>character_largeimage_h0199.ab</v>
       </c>
       <c r="C232">
-        <v>851153</v>
+        <v>735348</v>
       </c>
       <c r="D232" t="str">
         <v>Stage_1</v>
@@ -5020,18 +5020,18 @@
         <v>0</v>
       </c>
       <c r="F232" t="str">
-        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
+        <v>6abcad1554f2029a1606d78c0b4af00ea07d77891013a569a05df41d480475cd</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="B233" t="str">
-        <v>character_largeimage_m0011.ab</v>
+        <v>character_largeimage_h0200.ab</v>
       </c>
       <c r="C233">
-        <v>3264119</v>
+        <v>839955</v>
       </c>
       <c r="D233" t="str">
         <v>Stage_1</v>
@@ -5040,18 +5040,18 @@
         <v>0</v>
       </c>
       <c r="F233" t="str">
-        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
+        <v>b15b57311efce349aa175eba9edc55b03ce01be2c6a6b72230d6b7915bc381d4</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="B234" t="str">
-        <v>character_largeimage_r0034.ab</v>
+        <v>character_largeimage_h0201.ab</v>
       </c>
       <c r="C234">
-        <v>3084217</v>
+        <v>851153</v>
       </c>
       <c r="D234" t="str">
         <v>Stage_1</v>
@@ -5060,18 +5060,18 @@
         <v>0</v>
       </c>
       <c r="F234" t="str">
-        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
+        <v>fd9f85fe2d6c8a22a29188bb3ec67d6bf7b98b9458372001af03cab491349aeb</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="B235" t="str">
-        <v>character_largeimage_r0160.ab</v>
+        <v>character_largeimage_m0011.ab</v>
       </c>
       <c r="C235">
-        <v>2455825</v>
+        <v>3264119</v>
       </c>
       <c r="D235" t="str">
         <v>Stage_1</v>
@@ -5080,18 +5080,18 @@
         <v>0</v>
       </c>
       <c r="F235" t="str">
-        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
+        <v>1024562e88af2d87126f3df852d5708234e22ed25e549a24acb8bf3599ee8cd3</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="B236" t="str">
-        <v>character_largeimage_r0173.ab</v>
+        <v>character_largeimage_r0034.ab</v>
       </c>
       <c r="C236">
-        <v>807112</v>
+        <v>3084217</v>
       </c>
       <c r="D236" t="str">
         <v>Stage_1</v>
@@ -5100,18 +5100,18 @@
         <v>0</v>
       </c>
       <c r="F236" t="str">
-        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
+        <v>a3dab9d37bd99e4d8645705461f5abbecea55b9ad1e11a2690d66eab20b05aed</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="B237" t="str">
-        <v>character_largeimage_t0017.ab</v>
+        <v>character_largeimage_r0160.ab</v>
       </c>
       <c r="C237">
-        <v>4718336</v>
+        <v>2455825</v>
       </c>
       <c r="D237" t="str">
         <v>Stage_1</v>
@@ -5120,18 +5120,18 @@
         <v>0</v>
       </c>
       <c r="F237" t="str">
-        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
+        <v>dcbb884f927cfbbe4c5eb486e219d2695ee67eec68049283704ba4a3a1fad67b</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="B238" t="str">
-        <v>character_largeimage_t0026.ab</v>
+        <v>character_largeimage_r0173.ab</v>
       </c>
       <c r="C238">
-        <v>3220892</v>
+        <v>807112</v>
       </c>
       <c r="D238" t="str">
         <v>Stage_1</v>
@@ -5140,18 +5140,18 @@
         <v>0</v>
       </c>
       <c r="F238" t="str">
-        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
+        <v>ab61e1b8ba6c85931be00a00bf70bd4ff50401bde7fdbadd46fba4b15b2b3a3b</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="B239" t="str">
-        <v>character_largeimage_t0027.ab</v>
+        <v>character_largeimage_t0017.ab</v>
       </c>
       <c r="C239">
-        <v>2952548</v>
+        <v>4718336</v>
       </c>
       <c r="D239" t="str">
         <v>Stage_1</v>
@@ -5160,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="F239" t="str">
-        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
+        <v>cf1bbde1c999bd2808c93665ab9772302d4c945ecc210d325e5cf19cc2621a06</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="B240" t="str">
-        <v>character_largeimage_t0032.ab</v>
+        <v>character_largeimage_t0026.ab</v>
       </c>
       <c r="C240">
-        <v>3274402</v>
+        <v>3220892</v>
       </c>
       <c r="D240" t="str">
         <v>Stage_1</v>
@@ -5180,18 +5180,18 @@
         <v>0</v>
       </c>
       <c r="F240" t="str">
-        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
+        <v>7f6ff475f37b9166490bb4dd5ce66e91b52ff38b58d6f5248b5b90802505cbca</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="B241" t="str">
-        <v>character_largeimage_t0033.ab</v>
+        <v>character_largeimage_t0027.ab</v>
       </c>
       <c r="C241">
-        <v>3119279</v>
+        <v>2952548</v>
       </c>
       <c r="D241" t="str">
         <v>Stage_1</v>
@@ -5200,18 +5200,18 @@
         <v>0</v>
       </c>
       <c r="F241" t="str">
-        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
+        <v>837bc034316108d11ff43d4bd152aa27729ab7b12fb2ded3e142234b3c5ba9bb</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="B242" t="str">
-        <v>character_largeimage_t0039.ab</v>
+        <v>character_largeimage_t0032.ab</v>
       </c>
       <c r="C242">
-        <v>832384</v>
+        <v>3274402</v>
       </c>
       <c r="D242" t="str">
         <v>Stage_1</v>
@@ -5220,18 +5220,18 @@
         <v>0</v>
       </c>
       <c r="F242" t="str">
-        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
+        <v>b09ecbd6c2d1a1171bf307f5eac2242d3a05744849a0b96ee8383b04884c0165</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="B243" t="str">
-        <v>character_largeimage_t0044.ab</v>
+        <v>character_largeimage_t0033.ab</v>
       </c>
       <c r="C243">
-        <v>813808</v>
+        <v>3119279</v>
       </c>
       <c r="D243" t="str">
         <v>Stage_1</v>
@@ -5240,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="F243" t="str">
-        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
+        <v>a801f263f358415111450c3eae0d8951619e76e717dac05c5dca16da889539e8</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="B244" t="str">
-        <v>character_largeimage_t0049.ab</v>
+        <v>character_largeimage_t0039.ab</v>
       </c>
       <c r="C244">
-        <v>2168197</v>
+        <v>832384</v>
       </c>
       <c r="D244" t="str">
         <v>Stage_1</v>
@@ -5260,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="F244" t="str">
-        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
+        <v>2256a5c6f3fc40481a5f9e0926d7903d1f6cb84e40d822a1f556e66ea7b750b2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="B245" t="str">
-        <v>character_largeimage_t0153.ab</v>
+        <v>character_largeimage_t0044.ab</v>
       </c>
       <c r="C245">
-        <v>2399059</v>
+        <v>813808</v>
       </c>
       <c r="D245" t="str">
         <v>Stage_1</v>
@@ -5280,18 +5280,18 @@
         <v>0</v>
       </c>
       <c r="F245" t="str">
-        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
+        <v>ee3098814d36a7877a2b9d11ee92ed5a6e47e14a7c502d66a689e377316a683e</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="B246" t="str">
-        <v>character_largeimage_t0155.ab</v>
+        <v>character_largeimage_t0049.ab</v>
       </c>
       <c r="C246">
-        <v>2391618</v>
+        <v>2168197</v>
       </c>
       <c r="D246" t="str">
         <v>Stage_1</v>
@@ -5300,18 +5300,18 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
+        <v>ca0beed23f9e68332ff594f1a59b137b70d2771a4b3415e2bf49c047efa25456</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="B247" t="str">
-        <v>character_largeimage_t0156.ab</v>
+        <v>character_largeimage_t0153.ab</v>
       </c>
       <c r="C247">
-        <v>2427114</v>
+        <v>2399059</v>
       </c>
       <c r="D247" t="str">
         <v>Stage_1</v>
@@ -5320,18 +5320,18 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
+        <v>805528c0a8609d679ac67e7664b4722ae2e7f74f6bd07629a18a299b681fb1e0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="B248" t="str">
-        <v>character_largeimage_t0158.ab</v>
+        <v>character_largeimage_t0155.ab</v>
       </c>
       <c r="C248">
-        <v>3266558</v>
+        <v>2391618</v>
       </c>
       <c r="D248" t="str">
         <v>Stage_1</v>
@@ -5340,18 +5340,18 @@
         <v>0</v>
       </c>
       <c r="F248" t="str">
-        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
+        <v>0e2c90b02a1c95946a9a0a4da72cd965fc7d561022d7376c7a997faea2f0df39</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="B249" t="str">
-        <v>character_largeimage_t0180.ab</v>
+        <v>character_largeimage_t0156.ab</v>
       </c>
       <c r="C249">
-        <v>2335524</v>
+        <v>2427114</v>
       </c>
       <c r="D249" t="str">
         <v>Stage_1</v>
@@ -5360,18 +5360,18 @@
         <v>0</v>
       </c>
       <c r="F249" t="str">
-        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
+        <v>507016dfa36f239fa22df02ec0bd20563770c7f27bf85a60ca1f6308750a524d</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="B250" t="str">
-        <v>character_largeimage_t0181.ab</v>
+        <v>character_largeimage_t0158.ab</v>
       </c>
       <c r="C250">
-        <v>2490016</v>
+        <v>3266558</v>
       </c>
       <c r="D250" t="str">
         <v>Stage_1</v>
@@ -5380,18 +5380,18 @@
         <v>0</v>
       </c>
       <c r="F250" t="str">
-        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+        <v>f7a690423d5128a74dc7e90aefe7689c1bd236939be907c1c6c5bb4cf35e0d5c</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="B251" t="str">
-        <v>character_largeimage_t0184.ab</v>
+        <v>character_largeimage_t0180.ab</v>
       </c>
       <c r="C251">
-        <v>2385791</v>
+        <v>2335524</v>
       </c>
       <c r="D251" t="str">
         <v>Stage_1</v>
@@ -5400,33 +5400,73 @@
         <v>0</v>
       </c>
       <c r="F251" t="str">
-        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+        <v>3b56fbe4db2a160560a9fe06448a1a4a427409feeb239a35594c6864fde6bb87</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="B252" t="str">
+        <v>character_largeimage_t0181.ab</v>
+      </c>
+      <c r="C252">
+        <v>2490016</v>
+      </c>
+      <c r="D252" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252" t="str">
+        <v>38cd66ffcae05f62c0bb12b9109038dbed6c81f2d7ae3a13b07d2c8d7f925c13</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="B253" t="str">
+        <v>character_largeimage_t0184.ab</v>
+      </c>
+      <c r="C253">
+        <v>2385791</v>
+      </c>
+      <c r="D253" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253" t="str">
+        <v>e5574da8817ec63994ed859204b904f2abad79dbb5ef838d0e8c44d52daf2746</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="B252" t="str">
+      <c r="B254" t="str">
         <v>character_largeimage_uncategorized_0.ab</v>
       </c>
-      <c r="C252">
+      <c r="C254">
         <v>560237</v>
       </c>
-      <c r="D252" t="str">
-        <v>Stage_1</v>
-      </c>
-      <c r="E252">
-        <v>0</v>
-      </c>
-      <c r="F252" t="str">
+      <c r="D254" t="str">
+        <v>Stage_1</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254" t="str">
         <v>fadf52f2bbe20858d59dc799e14e6e34b43e4d4b5d610a4e5a150a03a634dfc8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F252"/>
+  <autoFilter ref="A1:F254"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F252"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F254"/>
   </ignoredErrors>
 </worksheet>
 </file>